--- a/PCB/Project Outputs for SNES TST Adapter/Rev 0/Documentation/Type A/Bill of Materials-SNES TST Adapter(SNES TST Adapter).xlsx
+++ b/PCB/Project Outputs for SNES TST Adapter/Rev 0/Documentation/Type A/Bill of Materials-SNES TST Adapter(SNES TST Adapter).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ft\AppData\Local\TempReleases\Snapshot\2\Documentation\Type A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ft\AppData\Local\TempReleases\Snapshot\3\Documentation\Type A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C7D5B8B-FA03-4D97-A098-BA5547FB52AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52933C90-7C47-4840-A7E0-EB0028617C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{3AE88338-1E97-417C-B63C-3C17D33D49C9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{CCE329AE-0BF8-4CF0-ABF5-4F97C2E9610D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SNES TST Adap" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7803C1-45A7-47B3-8610-F81BA4ADFBFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F10CAC-0A60-40D7-A3AF-FF48FF5A42C7}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
